--- a/public/sheets/kids.xlsx
+++ b/public/sheets/kids.xlsx
@@ -1,96 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scian\Documents\Projects\afterschool-api\public\sheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4C0703-E895-481A-890A-3D5B2663752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Kids" sheetId="1" r:id="rId1"/>
+    <sheet name="Kids" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Log" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Cian</t>
-  </si>
-  <si>
-    <t>Out</t>
-  </si>
-  <si>
-    <t>Oisin</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>Aoibhinn</t>
-  </si>
-  <si>
-    <t>Noeleen</t>
-  </si>
-  <si>
-    <t>Manami</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Marcus</t>
-  </si>
-  <si>
-    <t>Tristan</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,29 +65,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -423,121 +443,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cian</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Aoibhinn</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oisin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cian</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-04-19 18:43:52</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/public/sheets/kids.xlsx
+++ b/public/sheets/kids.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Out</t>
+          <t>In</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,106 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cian</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-04-19 19:41:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aoibhinn</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-04-19 19:43:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aoibhinn</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-04-19 19:43:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cian</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-04-19 19:43:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Oisin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-04-19 19:43:46</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/sheets/kids.xlsx
+++ b/public/sheets/kids.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Kids" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Log" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kids" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,31 +490,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aoibhinn</t>
+          <t>Noeleen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Out</t>
+          <t>In</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Aoibhinn</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Oisin</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>In</t>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Out</t>
         </is>
       </c>
     </row>
@@ -529,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,12 +585,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Out</t>
+          <t>In</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-04-19 18:43:52</t>
+          <t>2024-04-24 18:44:28</t>
         </is>
       </c>
     </row>
@@ -590,22 +605,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>In</t>
+          <t>Out</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-04-19 19:41:51</t>
+          <t>2024-04-24 18:44:32</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aoibhinn</t>
+          <t>Noeleen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -615,67 +630,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-04-19 19:43:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Aoibhinn</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2024-04-19 19:43:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cian</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2024-04-19 19:43:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Oisin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>In</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2024-04-19 19:43:46</t>
+          <t>2024-04-24 18:46:33</t>
         </is>
       </c>
     </row>

--- a/public/sheets/kids.xlsx
+++ b/public/sheets/kids.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,11 +490,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Noeleen</t>
+          <t>Aoibhinn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,11 +505,11 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aoibhinn</t>
+          <t>Oisin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -520,14 +520,29 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oisin</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Noeleen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Out</t>
         </is>
@@ -544,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,6 +649,46 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-04-25 17:26:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aoibhinn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-04-25 17:28:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/sheets/kids.xlsx
+++ b/public/sheets/kids.xlsx
@@ -1,42 +1,192 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scian\Documents\Projects\afterschool-api\public\sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7A6F2A-BFB4-47F6-B471-DC7E27AFFF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kids" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Kids" sheetId="1" r:id="rId1"/>
+    <sheet name="Guardians" sheetId="3" r:id="rId2"/>
+    <sheet name="Log" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Cian</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>Aoibhinn</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Oisin</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Noeleen</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>2024-04-24 18:44:28</t>
+  </si>
+  <si>
+    <t>2024-04-24 18:44:32</t>
+  </si>
+  <si>
+    <t>2024-04-24 18:46:33</t>
+  </si>
+  <si>
+    <t>2024-04-25 17:26:00</t>
+  </si>
+  <si>
+    <t>2024-04-25 17:28:19</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Wallace</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>Yamamoto</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Ids</t>
+  </si>
+  <si>
+    <t>1, 5, 6</t>
+  </si>
+  <si>
+    <t>paul@example.com</t>
+  </si>
+  <si>
+    <t>noeleen@example.com</t>
+  </si>
+  <si>
+    <t>Galway</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>bob@example.com</t>
+  </si>
+  <si>
+    <t>karen@example.com</t>
+  </si>
+  <si>
+    <t>Baton Rogue</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Sibling</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,96 +216,48 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -443,109 +545,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cian</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Aoibhinn</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>In</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Oisin</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>In</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Noeleen</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -554,139 +644,217 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA94AF8-4C84-4B99-B4AE-10B00DC34FD6}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>98274092</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>92348574</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>82345093</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>23458909</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{DCFC82EA-6128-478C-8205-648313729A21}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{E01115FF-3226-4C96-A439-BCBC3A9AC77A}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{959CC206-402C-43AB-9988-1EBBCED20A43}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{93B41758-DABF-4BD9-A44B-DBF96E8B153A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cian</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>In</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2024-04-24 18:44:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cian</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2024-04-24 18:44:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Noeleen</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>In</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2024-04-24 18:46:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>7</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>In</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2024-04-25 17:26:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Aoibhinn</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>In</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2024-04-25 17:28:19</t>
-        </is>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/public/sheets/kids.xlsx
+++ b/public/sheets/kids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scian\Documents\Projects\afterschool-api\public\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7A6F2A-BFB4-47F6-B471-DC7E27AFFF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42798557-20EE-4631-AF71-7F3400C88FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1575" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kids" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -105,12 +105,6 @@
     <t>Relationship</t>
   </si>
   <si>
-    <t>Ids</t>
-  </si>
-  <si>
-    <t>1, 5, 6</t>
-  </si>
-  <si>
     <t>paul@example.com</t>
   </si>
   <si>
@@ -145,6 +139,12 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Guardians</t>
+  </si>
+  <si>
+    <t>1, 2</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -239,10 +239,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -546,15 +549,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,8 +570,11 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -581,8 +587,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -595,8 +604,11 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -609,8 +621,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -623,8 +638,11 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -635,6 +653,9 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
     </row>
@@ -647,15 +668,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA94AF8-4C84-4B99-B4AE-10B00DC34FD6}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -674,8 +695,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -684,18 +705,18 @@
         <v>98274092</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -704,53 +725,53 @@
         <v>92348574</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>82345093</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>23458909</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
